--- a/Documentation/Scenario/Scenario.xlsx
+++ b/Documentation/Scenario/Scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Scenario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Documentation/Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77FAF645-25D2-43E1-B9B8-2F6D4596EF8C}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2C5AE3-7736-4A3F-B3F1-FECB1C3D4679}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point 1" sheetId="1" r:id="rId1"/>
@@ -819,19 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,9 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,12 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +865,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1280,15 +1280,15 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -1312,7 +1312,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1457,8 +1457,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1467,21 +1467,21 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1645,21 +1645,21 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -1833,7 +1833,7 @@
     </row>
     <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="15" t="s">
         <v>56</v>
       </c>
@@ -1998,11 +1998,11 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2044,8 +2044,8 @@
   </sheetPr>
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,11 +2060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="23" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="4"/>
@@ -2122,7 +2122,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2133,7 +2133,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
         <v>67</v>
       </c>
@@ -2142,18 +2142,18 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="34" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2283,7 +2283,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2310,18 +2310,18 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="31"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="43" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="36" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="35" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2452,7 +2452,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
@@ -2461,9 +2461,9 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="43" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="37" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2521,15 +2521,15 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="8">
@@ -2537,10 +2537,10 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="40">
         <v>45414</v>
       </c>
     </row>

--- a/Documentation/Scenario/Scenario.xlsx
+++ b/Documentation/Scenario/Scenario.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Documentation/Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2C5AE3-7736-4A3F-B3F1-FECB1C3D4679}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50835ECA-3408-4B37-9FCD-FB5141AFFEA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point 1" sheetId="1" r:id="rId1"/>
     <sheet name="Point 2.1" sheetId="2" r:id="rId2"/>
     <sheet name="Point 2.2" sheetId="3" r:id="rId3"/>
-    <sheet name="Point 3" sheetId="4" r:id="rId4"/>
-    <sheet name="Recherche de produit" sheetId="5" r:id="rId5"/>
-    <sheet name="Ajout fournisseur" sheetId="6" r:id="rId6"/>
-    <sheet name="Modification fournisseur" sheetId="7" r:id="rId7"/>
-    <sheet name="Suppresion fournisseur" sheetId="8" r:id="rId8"/>
-    <sheet name="Cartouche" sheetId="9" r:id="rId9"/>
+    <sheet name="Point 2.3" sheetId="10" r:id="rId4"/>
+    <sheet name="Point 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Recherche de produit" sheetId="5" r:id="rId6"/>
+    <sheet name="Ajout fournisseur" sheetId="6" r:id="rId7"/>
+    <sheet name="Modification fournisseur" sheetId="7" r:id="rId8"/>
+    <sheet name="Suppresion fournisseur" sheetId="8" r:id="rId9"/>
+    <sheet name="Cartouche" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Identifient</t>
   </si>
@@ -95,9 +96,6 @@
     <t>Les données insérers sont correcte</t>
   </si>
   <si>
-    <t>Calcule la valeur de la résistance à insérer</t>
-  </si>
-  <si>
     <t>Les données insérers sont correcte mais pas fonctionnelle</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
     <t>réaction</t>
   </si>
   <si>
-    <t>Calcule le courant</t>
-  </si>
-  <si>
     <t>Affiche le courant</t>
   </si>
   <si>
@@ -137,15 +132,6 @@
     <t>Saisie la tension, le courant max et la tension seuil de la led</t>
   </si>
   <si>
-    <t>Calcule la valeur de la résistance à utiliser</t>
-  </si>
-  <si>
-    <t>Calcule la constante de temps avec la résistance à utiliser</t>
-  </si>
-  <si>
-    <t>Affiche le temps de chargement du condensateur et la résistance a utiliser</t>
-  </si>
-  <si>
     <t>Connaitre capacité du condensateur apartire de son temps de charge est de la résistence utilisé</t>
   </si>
   <si>
@@ -155,12 +141,6 @@
     <t>Saisie le temps de charge du condensateur et la résistance utilisé</t>
   </si>
   <si>
-    <t>Calcule la taille du condensateur à utiliser</t>
-  </si>
-  <si>
-    <t>Affiche le temps de chargement du condensateur et le condensateur à utiliser</t>
-  </si>
-  <si>
     <t>Point 2.1</t>
   </si>
   <si>
@@ -321,6 +301,72 @@
   </si>
   <si>
     <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Calcule la valeur de la résistance E12 à insérer</t>
+  </si>
+  <si>
+    <t>Calcule le courant avec la résistance E12</t>
+  </si>
+  <si>
+    <t>Calcule la valeur de la résistance E12 à utiliser</t>
+  </si>
+  <si>
+    <t>Calcule la constante de temps avec la résistance E12 à utiliser</t>
+  </si>
+  <si>
+    <t>Affiche le temps de chargement du condensateur et la résistance E12 à utiliser</t>
+  </si>
+  <si>
+    <t>Calcule la taille du condensateur E6 à utiliser</t>
+  </si>
+  <si>
+    <t>Calcule la constante de temps avec le condensateur à utiliser</t>
+  </si>
+  <si>
+    <t>Affiche le temps de chargement du condensateur et le condensateur E6 à utiliser</t>
+  </si>
+  <si>
+    <t>Indique quelles données sont erronées ou manquantes</t>
+  </si>
+  <si>
+    <t>Point 2.3</t>
+  </si>
+  <si>
+    <t>Connaitre la constente de temps de un condensateur</t>
+  </si>
+  <si>
+    <t>le temps que mettra le condensateur a se charger</t>
+  </si>
+  <si>
+    <t>Multiplie la résistance avec le condensateur</t>
+  </si>
+  <si>
+    <t>Retourne le résultat</t>
+  </si>
+  <si>
+    <t>La résistance et le condensateur sont définis</t>
+  </si>
+  <si>
+    <t>La donnée insérer est erronée ou manquante</t>
+  </si>
+  <si>
+    <t>La donnée insérer est correcte mais pas fonctionnelle</t>
+  </si>
+  <si>
+    <t>La donnée insérer est correcte</t>
+  </si>
+  <si>
+    <t>Indique que la donnée ne est pas fonctionnelle</t>
+  </si>
+  <si>
+    <t>Indique que la  donnée est erronée ou manquante</t>
+  </si>
+  <si>
+    <t>Il est possible d'utiliser une seule résistance</t>
+  </si>
+  <si>
+    <t>Indique la résistance à utiliser</t>
   </si>
 </sst>
 </file>
@@ -745,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,6 +911,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,8 +1222,8 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1240,18 +1289,18 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1262,62 +1311,62 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="8" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>27</v>
+      <c r="B18" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1353,6 +1402,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEF53-341B-4695-A94C-7439B0BD710B}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="40">
+        <v>45426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC169971-DE38-49B8-B98F-E673342DF85C}">
   <sheetPr>
@@ -1360,8 +1462,8 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1399,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1407,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1432,13 +1534,13 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1449,55 +1551,55 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
-        <v>27</v>
+      <c r="B17" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1539,7 +1641,7 @@
   <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1577,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1585,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1610,13 +1712,13 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1627,55 +1729,55 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
-        <v>27</v>
+      <c r="B17" s="42" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1710,14 +1812,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6FEBF-F0A3-48BD-ABEF-C5D5FA41D374}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D81B6A7-4AAC-4F22-98A3-7EEF3D0F04CC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1755,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1788,110 +2010,119 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="30" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
+      <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="D19" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17A9312-FC4D-43AF-8669-863A7B0BAF77}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1919,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1937,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1945,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1969,8 +2200,8 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
-        <v>27</v>
+      <c r="B11" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>16</v>
@@ -1980,30 +2211,30 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2037,14 +2268,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AA6B70-C8F2-4990-9C70-521F78BF9E98}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2074,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2083,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2116,45 +2347,45 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>65</v>
+      <c r="B12" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94D57B7-B5FB-4FB2-981F-C3B5BFB02A06}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2215,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2224,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2233,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2241,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2266,63 +2497,63 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>75</v>
+      <c r="B12" s="42" t="s">
+        <v>68</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>79</v>
+      <c r="B15" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="33"/>
       <c r="D17" s="36" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2356,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9566C15-138B-4596-A36B-DA933863F304}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2384,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2393,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2402,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2410,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2435,36 +2666,36 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>87</v>
+      <c r="B12" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="33"/>
       <c r="D14" s="36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2495,57 +2726,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEF53-341B-4695-A94C-7439B0BD710B}">
-  <dimension ref="B1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="40">
-        <v>45414</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documentation/Scenario/Scenario.xlsx
+++ b/Documentation/Scenario/Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Documentation/Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50835ECA-3408-4B37-9FCD-FB5141AFFEA7}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1A2800-5EE5-44D3-8A57-848D83F42058}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>Identifient</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Affiche le courant</t>
   </si>
   <si>
-    <t>Choisi la puissance max disipée</t>
-  </si>
-  <si>
     <t>Clique sur le bouton recherchez produit</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>Affiche le temps de chargement du condensateur et le condensateur E6 à utiliser</t>
   </si>
   <si>
-    <t>Indique quelles données sont erronées ou manquantes</t>
-  </si>
-  <si>
     <t>Point 2.3</t>
   </si>
   <si>
@@ -367,6 +361,9 @@
   </si>
   <si>
     <t>Indique la résistance à utiliser</t>
+  </si>
+  <si>
+    <t>Un résultat est fourni par l'application</t>
   </si>
 </sst>
 </file>
@@ -791,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,14 +925,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,10 +1220,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
@@ -1325,89 +1325,73 @@
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="16" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEF53-341B-4695-A94C-7439B0BD710B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,34 +1403,34 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="40">
-        <v>45426</v>
+        <v>45428</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1501,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1509,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,7 +1518,7 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
@@ -1565,71 +1549,61 @@
         <v>19</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1638,10 +1612,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1679,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1687,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1712,7 +1686,7 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="23"/>
@@ -1743,68 +1717,58 @@
         <v>19</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
       <c r="C16" s="25"/>
       <c r="D16" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
@@ -1839,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1857,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1865,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1891,17 +1855,17 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1936,10 +1900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -1977,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1985,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2010,7 +1974,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
@@ -2020,102 +1984,92 @@
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
@@ -2130,7 +2084,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2168,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2176,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2200,8 +2154,8 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
-        <v>25</v>
+      <c r="B11" s="46" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>16</v>
@@ -2216,25 +2170,25 @@
         <v>19</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45"/>
       <c r="C14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2305,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2314,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2322,7 +2276,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2347,17 +2301,17 @@
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
@@ -2366,26 +2320,26 @@
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2455,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2464,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2472,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2497,17 +2451,17 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
@@ -2516,25 +2470,25 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>17</v>
@@ -2543,17 +2497,17 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
       <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="33"/>
       <c r="D17" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2615,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2624,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -2633,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2641,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2666,17 +2620,17 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>17</v>
@@ -2685,17 +2639,17 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27"/>
       <c r="C14" s="33"/>
       <c r="D14" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/Documentation/Scenario/Scenario.xlsx
+++ b/Documentation/Scenario/Scenario.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1A2800-5EE5-44D3-8A57-848D83F42058}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point 1" sheetId="1" r:id="rId1"/>
@@ -914,21 +914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,6 +921,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,8 +1222,8 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1300,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="15"/>
       <c r="D15" s="8" t="s">
         <v>89</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="16" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1390,8 +1390,8 @@
   </sheetPr>
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
   </sheetPr>
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1524,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1535,7 +1535,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1692,7 +1692,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1703,7 +1703,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -1980,7 +1980,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1991,7 +1991,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="15" t="s">
         <v>103</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15" t="s">
         <v>104</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -2084,7 +2084,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2165,7 +2165,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="17" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2230,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2307,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>59</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2548,7 +2548,7 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2626,7 +2626,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2637,7 +2637,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>69</v>
       </c>

--- a/Documentation/Scenario/Scenario.xlsx
+++ b/Documentation/Scenario/Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Documentation/Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C1A2800-5EE5-44D3-8A57-848D83F42058}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="11_F25DC773A252ABDACC1048A231196A665BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375A0F47-0EF0-48C4-8A63-7CE59FF96777}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,10 @@
     <sheet name="Ajout fournisseur" sheetId="6" r:id="rId7"/>
     <sheet name="Modification fournisseur" sheetId="7" r:id="rId8"/>
     <sheet name="Suppresion fournisseur" sheetId="8" r:id="rId9"/>
-    <sheet name="Cartouche" sheetId="9" r:id="rId10"/>
+    <sheet name="Ajout materille" sheetId="11" r:id="rId10"/>
+    <sheet name="Modification materielle" sheetId="13" r:id="rId11"/>
+    <sheet name="Suppresion materielle" sheetId="14" r:id="rId12"/>
+    <sheet name="Cartouche" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="121">
   <si>
     <t>Identifient</t>
   </si>
@@ -364,6 +367,39 @@
   </si>
   <si>
     <t>Un résultat est fourni par l'application</t>
+  </si>
+  <si>
+    <t>Ajout matériel</t>
+  </si>
+  <si>
+    <t>Ajoute le matériel à la BD</t>
+  </si>
+  <si>
+    <t>Indique que le matériel a bien été ajouter</t>
+  </si>
+  <si>
+    <t>Ajouté du matériel</t>
+  </si>
+  <si>
+    <t>Modification matériel</t>
+  </si>
+  <si>
+    <t>Modification les information de un composant</t>
+  </si>
+  <si>
+    <t>Saisie la référence du composant</t>
+  </si>
+  <si>
+    <t>Affiche un message de erreur</t>
+  </si>
+  <si>
+    <t>Supprimer materielle</t>
+  </si>
+  <si>
+    <t>Supprimer un materielle</t>
+  </si>
+  <si>
+    <t>Avoir une liste du materielle a jour</t>
   </si>
 </sst>
 </file>
@@ -788,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +957,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,7 +1342,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1311,7 +1353,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1362,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1384,14 +1426,474 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF858DB2-9927-4FEB-A05F-7B0893CCBCF8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="45"/>
+      <c r="C14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C032369-408F-47FB-AA77-0892246AC3C4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="C13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+      <c r="C16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="46"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716A22E2-2FF9-485F-9316-89E2070C2D20}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="C13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEF53-341B-4695-A94C-7439B0BD710B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1924,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,7 +1932,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="40">
-        <v>45428</v>
+        <v>45440</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +2026,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1535,7 +2037,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +2046,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +2194,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1703,7 +2205,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +2214,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
@@ -1980,7 +2482,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -1991,7 +2493,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="15" t="s">
         <v>103</v>
       </c>
@@ -2000,7 +2502,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>104</v>
       </c>
@@ -2154,7 +2656,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2165,7 +2667,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +2676,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2685,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="17" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2732,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2809,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2318,7 +2820,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>59</v>
       </c>
@@ -2380,7 +2882,7 @@
   <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2959,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2468,7 +2970,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
@@ -2484,7 +2986,7 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="47" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2495,7 +2997,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
@@ -2548,8 +3050,8 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +3128,7 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2637,7 +3139,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
